--- a/raw/pop_towns2012.xlsx
+++ b/raw/pop_towns2012.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F30AB6-D5E8-E54C-93F1-A09F82313554}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="21075" windowHeight="10290"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="33980" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,7 +573,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -775,15 +776,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -847,17 +839,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,6 +870,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -917,7 +921,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,9 +954,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,6 +1006,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1160,71 +1198,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="J1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="J2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="J3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -1234,103 +1263,97 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
-      <c r="J5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>933835</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <v>862813</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
-      <c r="J6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>897259</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="19">
         <v>274170</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>187530</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>151539</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>165602</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="21">
         <v>117599</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -1340,1145 +1363,1139 @@
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J11">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="27">
+        <v>3272</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="27">
+        <v>51272</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="27">
+        <v>19794</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="27">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="27">
+        <v>19158</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="27">
+        <v>29190</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="27">
+        <v>19686</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="27">
+        <v>23620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="27">
+        <v>4284</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="27">
+        <v>18892</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2356</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="27">
+        <v>11451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="27">
+        <v>18283</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="27">
+        <v>7603</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="27">
+        <v>31774</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="27">
+        <v>19877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="27">
+        <v>3759</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="27">
+        <v>11387</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="27">
+        <v>73153</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="27">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="27">
+        <v>6065</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="27">
+        <v>15779</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="27">
+        <v>20110</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="27">
+        <v>25835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="27">
+        <v>20463</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="27">
+        <v>44660</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="27">
+        <v>14112</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="27">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="27">
+        <v>5550</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="27">
+        <v>6648</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="27">
+        <v>6903</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="27">
+        <v>11987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="27">
+        <v>19161</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="27">
+        <v>60450</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="27">
+        <v>130741</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="27">
+        <v>125109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="27">
+        <v>3566</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="27">
+        <v>25529</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="27">
+        <v>30602</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="27">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="27">
+        <v>20602</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="27">
+        <v>1991</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="27">
+        <v>27707</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="27">
+        <v>18556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="27">
+        <v>4960</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="27">
+        <v>34698</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="27">
+        <v>27835</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="27">
+        <v>52077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="27">
+        <v>2638</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="27">
+        <v>2952</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="27">
+        <v>28042</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="27">
+        <v>15868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="27">
+        <v>28024</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="27">
+        <v>11316</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="27">
+        <v>1685</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="27">
+        <v>7788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="27">
+        <v>146425</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="27">
+        <v>62256</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="27">
+        <v>14379</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="27">
+        <v>9373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="27">
+        <v>1702</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="27">
+        <v>11986</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="27">
+        <v>3259</v>
+      </c>
+      <c r="G27" s="28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="30">
-        <v>3272</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="30">
-        <v>51272</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="30">
-        <v>19794</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="30">
-        <v>3648</v>
-      </c>
-      <c r="J12">
+      <c r="H27" s="27">
+        <v>14964</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="27">
+        <v>60603</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="27">
+        <v>39896</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="27">
+        <v>24033</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="27">
+        <v>35808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="27">
+        <v>16783</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="27">
+        <v>22403</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="27">
+        <v>5303</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="27">
+        <v>36514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="27">
+        <v>8203</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="27">
+        <v>8358</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="27">
+        <v>87190</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="29">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="27">
+        <v>9434</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="27">
+        <v>60863</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="27">
+        <v>40502</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="27">
+        <v>29122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="27">
+        <v>1218</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="27">
+        <v>1869</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="27">
+        <v>7592</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="27">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="27">
+        <v>5106</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="27">
+        <v>124893</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="27">
+        <v>10238</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="27">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="27">
+        <v>10351</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="27">
+        <v>2132</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="27">
+        <v>13935</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="27">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="27">
+        <v>2286</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="27">
+        <v>5600</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="27">
+        <v>12819</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="27">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="27">
+        <v>29300</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="27">
+        <v>9624</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="27">
+        <v>15267</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="27">
+        <v>109915</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="27">
+        <v>4245</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="27">
+        <v>2951</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="27">
+        <v>17819</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="27">
+        <v>19533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="27">
+        <v>13196</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="27">
+        <v>17269</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="27">
+        <v>12089</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="27">
+        <v>22261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="27">
+        <v>16187</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="27">
+        <v>6504</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="27">
+        <v>4217</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="27">
+        <v>6914</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="27">
+        <v>1461</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="27">
+        <v>7326</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="27">
+        <v>9472</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="27">
+        <v>63274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="27">
+        <v>5461</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="27">
+        <v>15077</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="27">
+        <v>4753</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="27">
+        <v>55404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="27">
+        <v>1399</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="27">
+        <v>4355</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="27">
+        <v>9642</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="27">
+        <v>10350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="27">
+        <v>12425</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="30">
-        <v>19158</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="30">
-        <v>29190</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="30">
-        <v>19686</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="30">
-        <v>23620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="30">
-        <v>4284</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="30">
-        <v>18892</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="30">
-        <v>2356</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="30">
-        <v>11451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="30">
-        <v>18283</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="30">
-        <v>7603</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="30">
-        <v>31774</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="30">
-        <v>19877</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="30">
-        <v>3759</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="30">
-        <v>11387</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="30">
-        <v>73153</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="30">
-        <v>43434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="30">
-        <v>6065</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="30">
-        <v>15779</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="30">
-        <v>20110</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="30">
-        <v>25835</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="30">
-        <v>20463</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="30">
-        <v>44660</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="30">
-        <v>14112</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="30">
-        <v>2988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="30">
-        <v>5550</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="30">
-        <v>6648</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="30">
-        <v>6903</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="30">
-        <v>11987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="30">
-        <v>19161</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="30">
-        <v>60450</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="30">
-        <v>130741</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="30">
-        <v>125109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="30">
-        <v>3566</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="30">
-        <v>25529</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="30">
-        <v>30602</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="30">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="30">
-        <v>20602</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="30">
-        <v>1991</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="30">
-        <v>27707</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="30">
-        <v>18556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="30">
-        <v>4960</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="30">
-        <v>34698</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="30">
-        <v>27835</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="30">
-        <v>52077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="30">
-        <v>2638</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="30">
-        <v>2952</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="30">
-        <v>28042</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="30">
-        <v>15868</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="30">
-        <v>28024</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="30">
-        <v>11316</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="30">
-        <v>1685</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="30">
-        <v>7788</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="30">
-        <v>146425</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="30">
-        <v>62256</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="30">
-        <v>14379</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="30">
-        <v>9373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="30">
-        <v>1702</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="30">
-        <v>11986</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="30">
-        <v>3259</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="30">
-        <v>14964</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="30">
-        <v>60603</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="30">
-        <v>39896</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="30">
-        <v>24033</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="30">
-        <v>35808</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="30">
-        <v>16783</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="30">
-        <v>22403</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="30">
-        <v>5303</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="30">
-        <v>36514</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="30">
-        <v>8203</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="30">
-        <v>8358</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="30">
-        <v>87190</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="32">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="30">
-        <v>9434</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="30">
-        <v>60863</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="30">
-        <v>40502</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="30">
-        <v>29122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="30">
-        <v>1218</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="30">
-        <v>1869</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="30">
-        <v>7592</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="30">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="30">
-        <v>5106</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="30">
-        <v>124893</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="30">
-        <v>10238</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="30">
-        <v>45179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="30">
-        <v>10351</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="30">
-        <v>2132</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="30">
-        <v>13935</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="30">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="30">
-        <v>2286</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="30">
-        <v>5600</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="30">
-        <v>12819</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="30">
-        <v>3534</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="30">
-        <v>29300</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="30">
-        <v>9624</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="30">
-        <v>15267</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" s="30">
-        <v>109915</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="30">
-        <v>4245</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="30">
-        <v>2951</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="30">
-        <v>17819</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" s="30">
-        <v>19533</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="30">
-        <v>13196</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="30">
-        <v>17269</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="30">
-        <v>12089</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" s="30">
-        <v>22261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="30">
-        <v>16187</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="30">
-        <v>6504</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="30">
-        <v>4217</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="30">
-        <v>6914</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="30">
-        <v>1461</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="30">
-        <v>7326</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" s="30">
-        <v>9472</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H40" s="30">
-        <v>63274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="30">
-        <v>5461</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="30">
-        <v>15077</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="30">
-        <v>4753</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H41" s="30">
-        <v>55404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="30">
-        <v>1399</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="30">
-        <v>4355</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="30">
-        <v>9642</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="H42" s="30">
-        <v>10350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="30">
-        <v>12425</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="30">
+      <c r="D43" s="27">
         <v>8353</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="27">
         <v>9491</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="G43" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="27">
         <v>27068</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="27">
         <v>14217</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="27">
         <v>2403</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="27">
         <v>9299</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="G44" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H44" s="27">
         <v>26710</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="27">
         <v>82807</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="27">
         <v>18291</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="27">
         <v>25045</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="27">
         <v>5994</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" s="27">
         <v>21114</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="27">
         <v>58289</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="27">
         <v>19729</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G46" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="27">
         <v>18617</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="27">
         <v>4603</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="27">
         <v>25648</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="27">
         <v>2237</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="G47" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="27">
         <v>11071</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="27">
         <v>12830</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="27">
         <v>6433</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="27">
         <v>4188</v>
       </c>
-      <c r="G48" s="31" t="s">
+      <c r="G48" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="27">
         <v>25091</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="27">
         <v>7368</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="27">
         <v>60638</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="27">
         <v>3701</v>
       </c>
-      <c r="G49" s="31" t="s">
+      <c r="G49" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="27">
         <v>29140</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="27">
         <v>1730</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="27">
         <v>7572</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="27">
         <v>1710</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="G50" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H50" s="27">
         <v>12546</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="27">
         <v>5184</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="27">
         <v>4416</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="27">
         <v>16561</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="G51" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="27">
         <v>16724</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="27">
         <v>9158</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="27">
         <v>47325</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="27">
         <v>2747</v>
       </c>
-      <c r="G52" s="31" t="s">
+      <c r="G52" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="H52" s="30">
+      <c r="H52" s="27">
         <v>8965</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="27">
         <v>12940</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="27">
         <v>52981</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="27">
         <v>40261</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="G53" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="H53" s="30">
+      <c r="H53" s="27">
         <v>9848</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="36" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="H54" s="37">
+      <c r="H54" s="34">
         <v>7904</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
@@ -2488,32 +2505,32 @@
       <c r="G55" s="9"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="38"/>
-    </row>
-    <row r="57" spans="1:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="35"/>
+    </row>
+    <row r="57" spans="1:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-    </row>
-    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+    </row>
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B58" s="10"/>
@@ -2524,20 +2541,20 @@
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-    </row>
-    <row r="60" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+    </row>
+    <row r="60" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="12"/>
@@ -2548,17 +2565,17 @@
       <c r="G60" s="13"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
+    <row r="61" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2578,12 +2595,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2591,12 +2608,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
